--- a/result/mid_result.xlsx
+++ b/result/mid_result.xlsx
@@ -534,7 +534,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['KR20180054377', 'US20150128062', 'JP2010097465']</t>
+          <t>['JP2010097465', 'US20150128062', 'KR20180054377']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -870,7 +870,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>['KR20140036555', 'KR102343582']</t>
+          <t>['KR102343582', 'KR20140036555']</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>['KR20140036555', 'KR102343582']</t>
+          <t>['KR102343582', 'KR20140036555']</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -1332,7 +1332,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>['KR20140036555', 'KR20120003588']</t>
+          <t>['KR20120003588', 'KR20140036555']</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>['KR102404585', 'KR20120060597']</t>
+          <t>['KR20120060597', 'KR102404585']</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>['KR102407595', 'KR102388442']</t>
+          <t>['KR102388442', 'KR102407595']</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>['US20110014985', 'KR20110007419']</t>
+          <t>['KR20110007419', 'US20110014985']</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>['JP5159375', 'US8113959', 'US20070218987', 'US20180104595', 'US8230045', 'US9808722', 'US20090228550']</t>
+          <t>['US20180104595', 'US20090228550', 'US20070218987', 'US8230045', 'US8113959', 'US9808722', 'JP5159375']</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>['KR20140036555', 'KR102343582']</t>
+          <t>['KR102343582', 'KR20140036555']</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -1709,12 +1709,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>KR20180054377</t>
+          <t>JP2010097465</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2018-05-24</t>
+          <t>2010-04-30</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
@@ -1743,12 +1743,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>JP2010097465</t>
+          <t>KR20180054377</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2010-04-30</t>
+          <t>2018-05-24</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
@@ -2032,12 +2032,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>JP5159375</t>
+          <t>US20180104595</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2013-03-06</t>
+          <t>2018-04-19</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
@@ -2049,12 +2049,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>US8113959</t>
+          <t>US20070218987</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2012-02-14</t>
+          <t>2007-09-20</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
@@ -2066,12 +2066,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>US20070218987</t>
+          <t>US8113959</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2007-09-20</t>
+          <t>2012-02-14</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
@@ -2083,12 +2083,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>US20180104595</t>
+          <t>JP5159375</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2018-04-19</t>
+          <t>2013-03-06</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
